--- a/psets/pset06profiling/profiling.xlsx
+++ b/psets/pset06profiling/profiling.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\nowic\pset05Profilingx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hun/Desktop/2019-1/DS/Hun_projects/psets/pset06profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FBC85-2770-8C44-A67C-F8A9DA2EA972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="10710"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,11 +42,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,22 +176,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Selection</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Selection sort vs Quicksort: O(n2) vs O(n log n)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> sort vs Quicksort: O(n</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="30000"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t>) vs O(n log n)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -204,11 +193,7 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -245,15 +230,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>selection</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -364,73 +341,73 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-5</c:v>
+                  <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7000000000000002E-5</c:v>
+                  <c:v>7.2000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.44E-4</c:v>
+                  <c:v>1.54E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>2.7300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7100000000000002E-4</c:v>
+                  <c:v>4.15E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2899999999999996E-4</c:v>
+                  <c:v>5.6800000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7800000000000005E-4</c:v>
+                  <c:v>7.2599999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.013E-3</c:v>
+                  <c:v>9.4700000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2019999999999999E-3</c:v>
+                  <c:v>1.16E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5200000000000001E-3</c:v>
+                  <c:v>1.222E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9290000000000002E-3</c:v>
+                  <c:v>5.13E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3453E-2</c:v>
+                  <c:v>1.3289E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5642999999999999E-2</c:v>
+                  <c:v>2.0822E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1279999999999997E-2</c:v>
+                  <c:v>2.9440999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1950000000000003E-2</c:v>
+                  <c:v>4.4594000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5643000000000002E-2</c:v>
+                  <c:v>6.5477999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2817999999999998E-2</c:v>
+                  <c:v>7.5080999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11588900000000001</c:v>
+                  <c:v>9.3005000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15057100000000001</c:v>
+                  <c:v>0.114882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.464756</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.383</c:v>
+                  <c:v>1.043704</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4140000000000001</c:v>
+                  <c:v>1.8891039999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.69</c:v>
+                  <c:v>2.9282650000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,15 +423,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>quck</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -565,73 +534,73 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>9.0000000000000002E-6</c:v>
+                  <c:v>6.0000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9000000000000001E-5</c:v>
+                  <c:v>1.2999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1000000000000001E-5</c:v>
+                  <c:v>2.5999999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8999999999999998E-5</c:v>
+                  <c:v>3.8000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2000000000000002E-5</c:v>
+                  <c:v>5.1E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7000000000000001E-5</c:v>
+                  <c:v>5.8E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06E-4</c:v>
+                  <c:v>7.6000000000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.13E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.2799999999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5200000000000001E-4</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7800000000000003E-4</c:v>
+                  <c:v>2.7500000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6899999999999995E-4</c:v>
+                  <c:v>4.6700000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4200000000000004E-4</c:v>
+                  <c:v>8.7399999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0700000000000004E-4</c:v>
+                  <c:v>1.098E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2899999999999999E-3</c:v>
+                  <c:v>1.024E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4580000000000001E-3</c:v>
+                  <c:v>1.1559999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.531E-3</c:v>
+                  <c:v>1.413E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.81E-3</c:v>
+                  <c:v>1.6019999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.134E-3</c:v>
+                  <c:v>1.622E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9290000000000002E-3</c:v>
+                  <c:v>3.2880000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.711E-3</c:v>
+                  <c:v>4.9509999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.2020000000000001E-3</c:v>
+                  <c:v>7.6E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.09E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +757,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,7 +1396,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1708,24 +1682,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="43.125" customWidth="1"/>
+    <col min="10" max="10" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,510 +1712,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="3">
-        <v>2.5000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C2" s="3">
-        <v>9.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>200</v>
       </c>
       <c r="B3" s="3">
-        <v>6.7000000000000002E-5</v>
+        <v>7.2000000000000002E-5</v>
       </c>
       <c r="C3" s="3">
-        <v>1.9000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>300</v>
       </c>
       <c r="B4" s="3">
-        <v>1.44E-4</v>
+        <v>1.54E-4</v>
       </c>
       <c r="C4" s="3">
-        <v>3.1000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>400</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5000000000000001E-4</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="C5" s="3">
-        <v>5.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>500</v>
       </c>
       <c r="B6" s="3">
-        <v>3.7100000000000002E-4</v>
+        <v>4.15E-4</v>
       </c>
       <c r="C6" s="3">
-        <v>7.2000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>600</v>
       </c>
       <c r="B7" s="3">
-        <v>5.2899999999999996E-4</v>
+        <v>5.6800000000000004E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>8.7000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.8E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>700</v>
       </c>
       <c r="B8" s="3">
-        <v>7.7800000000000005E-4</v>
+        <v>7.2599999999999997E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>1.06E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.6000000000000004E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>800</v>
       </c>
       <c r="B9" s="3">
-        <v>1.013E-3</v>
+        <v>9.4700000000000003E-4</v>
       </c>
       <c r="C9" s="3">
-        <v>1.2799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.03E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>900</v>
       </c>
       <c r="B10" s="3">
-        <v>1.2019999999999999E-3</v>
+        <v>1.16E-3</v>
       </c>
       <c r="C10" s="3">
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.13E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>1000</v>
       </c>
       <c r="B11" s="3">
-        <v>1.5200000000000001E-3</v>
+        <v>1.222E-3</v>
       </c>
       <c r="C11" s="3">
-        <v>1.5200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>2000</v>
       </c>
       <c r="B12" s="3">
-        <v>5.9290000000000002E-3</v>
+        <v>5.13E-3</v>
       </c>
       <c r="C12" s="3">
-        <v>3.7800000000000003E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>3000</v>
       </c>
       <c r="B13" s="3">
-        <v>1.3453E-2</v>
+        <v>1.3289E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>5.6899999999999995E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>4000</v>
       </c>
       <c r="B14" s="3">
-        <v>2.5642999999999999E-2</v>
+        <v>2.0822E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>7.4200000000000004E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.7399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>5000</v>
       </c>
       <c r="B15" s="3">
-        <v>4.1279999999999997E-2</v>
+        <v>2.9440999999999998E-2</v>
       </c>
       <c r="C15" s="3">
-        <v>9.0700000000000004E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.098E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>6000</v>
       </c>
       <c r="B16" s="3">
-        <v>5.1950000000000003E-2</v>
+        <v>4.4594000000000002E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>1.2899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.024E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>7000</v>
       </c>
       <c r="B17" s="3">
-        <v>7.5643000000000002E-2</v>
+        <v>6.5477999999999995E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>1.4580000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.1559999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>8000</v>
       </c>
       <c r="B18" s="3">
-        <v>9.2817999999999998E-2</v>
+        <v>7.5080999999999995E-2</v>
       </c>
       <c r="C18" s="3">
-        <v>1.531E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.413E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>9000</v>
       </c>
       <c r="B19" s="3">
-        <v>0.11588900000000001</v>
+        <v>9.3005000000000004E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>1.81E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.6019999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>10000</v>
       </c>
       <c r="B20" s="3">
-        <v>0.15057100000000001</v>
+        <v>0.114882</v>
       </c>
       <c r="C20" s="3">
-        <v>2.134E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.622E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20000</v>
       </c>
       <c r="B21" s="3">
-        <v>0.60499999999999998</v>
+        <v>0.464756</v>
       </c>
       <c r="C21" s="3">
-        <v>3.9290000000000002E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.2880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>30000</v>
       </c>
       <c r="B22" s="3">
-        <v>1.383</v>
+        <v>1.043704</v>
       </c>
       <c r="C22" s="3">
-        <v>6.711E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.9509999999999997E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>40000</v>
       </c>
       <c r="B23" s="3">
-        <v>2.4140000000000001</v>
+        <v>1.8891039999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>9.2020000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>50000</v>
       </c>
       <c r="B24" s="3">
-        <v>3.69</v>
+        <v>2.9282650000000001</v>
       </c>
       <c r="C24" s="3">
-        <v>1.06E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>40672</v>
-      </c>
-      <c r="F29">
-        <v>2.5000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30">
-        <v>200</v>
-      </c>
-      <c r="E30">
-        <v>14994</v>
-      </c>
-      <c r="F30">
-        <v>6.7000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D31">
-        <v>300</v>
-      </c>
-      <c r="E31">
-        <v>6960</v>
-      </c>
-      <c r="F31">
-        <v>1.44E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32">
-        <v>400</v>
-      </c>
-      <c r="E32">
-        <v>4002</v>
-      </c>
-      <c r="F32">
-        <v>2.5000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33">
-        <v>500</v>
-      </c>
-      <c r="E33">
-        <v>2692</v>
-      </c>
-      <c r="F33">
-        <v>3.7100000000000002E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34">
-        <v>600</v>
-      </c>
-      <c r="E34">
-        <v>1891</v>
-      </c>
-      <c r="F34">
-        <v>5.2899999999999996E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35">
-        <v>700</v>
-      </c>
-      <c r="E35">
-        <v>1286</v>
-      </c>
-      <c r="F35">
-        <v>7.7800000000000005E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D36">
-        <v>800</v>
-      </c>
-      <c r="E36">
-        <v>987</v>
-      </c>
-      <c r="F36">
-        <v>1.013E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37">
-        <v>900</v>
-      </c>
-      <c r="E37">
-        <v>832</v>
-      </c>
-      <c r="F37">
-        <v>1.2019999999999999E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D38">
-        <v>1000</v>
-      </c>
-      <c r="E38">
-        <v>658</v>
-      </c>
-      <c r="F38">
-        <v>1.5200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39">
-        <v>2000</v>
-      </c>
-      <c r="E39">
-        <v>169</v>
-      </c>
-      <c r="F39">
-        <v>5.9290000000000002E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D40">
-        <v>3000</v>
-      </c>
-      <c r="E40">
-        <v>75</v>
-      </c>
-      <c r="F40">
-        <v>1.3453E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41">
-        <v>4000</v>
-      </c>
-      <c r="E41">
-        <v>42</v>
-      </c>
-      <c r="F41">
-        <v>2.5642999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42">
-        <v>5000</v>
-      </c>
-      <c r="E42">
-        <v>25</v>
-      </c>
-      <c r="F42">
-        <v>4.1279999999999997E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43">
-        <v>6000</v>
-      </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-      <c r="F43">
-        <v>5.1950000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D44">
-        <v>7000</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>7.5643000000000002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45">
-        <v>8000</v>
-      </c>
-      <c r="E45">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>9.2817999999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D46">
-        <v>9000</v>
-      </c>
-      <c r="E46">
-        <v>9</v>
-      </c>
-      <c r="F46">
-        <v>0.11588900000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47">
-        <v>10000</v>
-      </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
-      <c r="F47">
-        <v>0.15057100000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D48">
-        <v>20000</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>0.60499999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49">
-        <v>30000</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1.383</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D50">
-        <v>40000</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>2.4140000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51">
-        <v>50000</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>3.69</v>
+        <v>1.09E-2</v>
       </c>
     </row>
   </sheetData>
